--- a/Cronograma_Impacto_Social_Grau_Dirceu.xlsx
+++ b/Cronograma_Impacto_Social_Grau_Dirceu.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
 </workbook>
 </file>
 
